--- a/BEEF CHART.xlsx
+++ b/BEEF CHART.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\obby\RB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78566581-7D52-4494-A522-4A4C926280BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2FE4D41-C4E4-4A9B-A990-517F12D25776}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{5519A5E1-1A76-4C15-8690-E056C2787699}"/>
   </bookViews>
@@ -31,16 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>JR</t>
-  </si>
-  <si>
-    <t>REG/BIG</t>
-  </si>
-  <si>
-    <t>SUPER</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Essex St. Nicks</t>
   </si>
@@ -52,6 +43,15 @@
   </si>
   <si>
     <t>BEEF Measurements in Oz.</t>
+  </si>
+  <si>
+    <t>Jr.</t>
+  </si>
+  <si>
+    <t>Reg.</t>
+  </si>
+  <si>
+    <t>Super</t>
   </si>
 </sst>
 </file>
@@ -75,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,12 +83,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F37DE5C-90FA-44A7-9FB2-148E36E85905}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
@@ -414,68 +435,96 @@
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="E5" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B7" s="2">
+        <v>20.05</v>
+      </c>
+      <c r="C7" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>8.5</v>
-      </c>
-      <c r="D4">
-        <v>20.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>9.1</v>
-      </c>
-      <c r="D5">
-        <v>18.100000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>11.9</v>
-      </c>
-      <c r="D8">
-        <v>18.45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B13" s="1">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>10.5</v>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
